--- a/SHIVAM_PROVISION_STORE_stoc.xlsx
+++ b/SHIVAM_PROVISION_STORE_stoc.xlsx
@@ -982,7 +982,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>75.0</v>
+        <v>40.0</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -991,7 +991,7 @@
         <v>80.0207</v>
       </c>
       <c r="E2" t="n">
-        <v>6001.55</v>
+        <v>3200.83</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1166,7 +1166,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="n">
-        <v>130.0</v>
+        <v>84.0</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1175,7 +1175,7 @@
         <v>65.8546</v>
       </c>
       <c r="E10" t="n">
-        <v>8561.09</v>
+        <v>5531.78</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -2089,7 +2089,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="n">
-        <v>58.0</v>
+        <v>46.0</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -2098,7 +2098,7 @@
         <v>39.0077</v>
       </c>
       <c r="E9" t="n">
-        <v>2262.45</v>
+        <v>1794.35</v>
       </c>
       <c r="F9" t="n">
         <v>5.0</v>
@@ -2434,7 +2434,7 @@
         <v>101</v>
       </c>
       <c r="B24" t="n">
-        <v>20.75</v>
+        <v>15.75</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -2443,7 +2443,7 @@
         <v>320.545</v>
       </c>
       <c r="E24" t="n">
-        <v>6651.3</v>
+        <v>5048.58</v>
       </c>
       <c r="F24" t="n">
         <v>5.0</v>
@@ -3081,7 +3081,7 @@
         <v>140</v>
       </c>
       <c r="B10" t="n">
-        <v>145.0</v>
+        <v>90.0</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -3090,7 +3090,7 @@
         <v>23.5055</v>
       </c>
       <c r="E10" t="n">
-        <v>3408.3</v>
+        <v>2115.5</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -3232,7 +3232,7 @@
         <v>149</v>
       </c>
       <c r="B3" t="n">
-        <v>579.75</v>
+        <v>441.75</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3241,7 +3241,7 @@
         <v>67.7067</v>
       </c>
       <c r="E3" t="n">
-        <v>39253.0</v>
+        <v>29909.4</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>

--- a/SHIVAM_PROVISION_STORE_stoc.xlsx
+++ b/SHIVAM_PROVISION_STORE_stoc.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="175">
   <si>
     <t>NAME</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>080131</t>
+  </si>
+  <si>
+    <t>Sesame Seed Til</t>
   </si>
   <si>
     <t>ajwain</t>
@@ -677,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" t="n">
         <v>72.0</v>
@@ -695,30 +698,30 @@
         <v>5.0</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.2801</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9141.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G3" t="s">
         <v>173</v>
-      </c>
-      <c r="B3" t="n">
-        <v>295.2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.0689</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11533.1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -762,16 +765,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>50.0</v>
+        <v>-550.0</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>31.1761</v>
+        <v>30.4485</v>
       </c>
       <c r="E2" t="n">
-        <v>1558.81</v>
+        <v>-16746.7</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -831,16 +834,16 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>30.5</v>
+        <v>80.5</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>74.7311</v>
+        <v>86.5631</v>
       </c>
       <c r="E5" t="n">
-        <v>2279.3</v>
+        <v>6968.33</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -854,7 +857,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>75.0</v>
+        <v>45.0</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -863,7 +866,7 @@
         <v>33.274</v>
       </c>
       <c r="E6" t="n">
-        <v>2495.55</v>
+        <v>1497.33</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -877,16 +880,16 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>48.5</v>
+        <v>-401.5</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>34.0395</v>
+        <v>34.472</v>
       </c>
       <c r="E7" t="n">
-        <v>1650.92</v>
+        <v>-13840.5</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -982,16 +985,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>80.0207</v>
+        <v>77.2371</v>
       </c>
       <c r="E2" t="n">
-        <v>3200.83</v>
+        <v>2703.3</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1005,16 +1008,16 @@
         <v>24</v>
       </c>
       <c r="B3" t="n">
-        <v>32.0</v>
+        <v>42.0</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>89.5359</v>
+        <v>82.5012</v>
       </c>
       <c r="E3" t="n">
-        <v>2865.15</v>
+        <v>3465.05</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1051,16 +1054,16 @@
         <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>33.5</v>
+        <v>63.5</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>112.228</v>
+        <v>110.568</v>
       </c>
       <c r="E5" t="n">
-        <v>3759.64</v>
+        <v>7021.08</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1103,10 +1106,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>100.0</v>
+        <v>94.5333</v>
       </c>
       <c r="E7" t="n">
-        <v>4500.0</v>
+        <v>4254.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -1120,16 +1123,16 @@
         <v>29</v>
       </c>
       <c r="B8" t="n">
-        <v>22.0</v>
+        <v>52.0</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>129.851</v>
+        <v>105.864</v>
       </c>
       <c r="E8" t="n">
-        <v>2856.71</v>
+        <v>5504.9</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -1166,7 +1169,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="n">
-        <v>84.0</v>
+        <v>24.0</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1175,7 +1178,7 @@
         <v>65.8546</v>
       </c>
       <c r="E10" t="n">
-        <v>5531.78</v>
+        <v>1580.51</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -1189,16 +1192,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0</v>
+        <v>2.0</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>71.4931</v>
+        <v>70.2372</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.38</v>
+        <v>140.475</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -1258,16 +1261,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="n">
-        <v>33.0</v>
+        <v>68.0</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>147.759</v>
+        <v>105.976</v>
       </c>
       <c r="E14" t="n">
-        <v>4876.03</v>
+        <v>7206.38</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -1304,7 +1307,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="n">
-        <v>33.5</v>
+        <v>23.5</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1313,7 +1316,7 @@
         <v>122.746</v>
       </c>
       <c r="E16" t="n">
-        <v>4111.99</v>
+        <v>2884.53</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -1396,16 +1399,16 @@
         <v>44</v>
       </c>
       <c r="B20" t="n">
-        <v>12.5</v>
+        <v>102.5</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>81.6254</v>
+        <v>80.0884</v>
       </c>
       <c r="E20" t="n">
-        <v>1020.32</v>
+        <v>8209.06</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -1442,16 +1445,16 @@
         <v>46</v>
       </c>
       <c r="B22" t="n">
-        <v>33.7</v>
+        <v>63.7</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>150.33</v>
+        <v>122.251</v>
       </c>
       <c r="E22" t="n">
-        <v>5066.11</v>
+        <v>7787.4</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -1513,7 +1516,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1593,16 +1596,16 @@
         <v>53</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>560.793</v>
+        <v>587.546</v>
       </c>
       <c r="E4" t="n">
-        <v>7851.11</v>
+        <v>9400.74</v>
       </c>
       <c r="F4" t="n">
         <v>12.0</v>
@@ -1662,7 +1665,7 @@
         <v>58</v>
       </c>
       <c r="B7" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1671,7 +1674,7 @@
         <v>123.91</v>
       </c>
       <c r="E7" t="n">
-        <v>1858.66</v>
+        <v>619.56</v>
       </c>
       <c r="F7" t="n">
         <v>5.0</v>
@@ -1685,16 +1688,16 @@
         <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>25.75</v>
+        <v>20.75</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>756.893</v>
+        <v>785.734</v>
       </c>
       <c r="E8" t="n">
-        <v>19490.0</v>
+        <v>16304.0</v>
       </c>
       <c r="F8" t="n">
         <v>5.0</v>
@@ -1708,16 +1711,16 @@
         <v>61</v>
       </c>
       <c r="B9" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>192.122</v>
+        <v>195.105</v>
       </c>
       <c r="E9" t="n">
-        <v>576.365</v>
+        <v>2536.36</v>
       </c>
       <c r="F9" t="n">
         <v>5.0</v>
@@ -1800,7 +1803,7 @@
         <v>68</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2125</v>
+        <v>14.2125</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1809,7 +1812,7 @@
         <v>541.06</v>
       </c>
       <c r="E13" t="n">
-        <v>9313.0</v>
+        <v>7689.82</v>
       </c>
       <c r="F13" t="n">
         <v>5.0</v>
@@ -1869,7 +1872,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1878,13 +1881,36 @@
         <v>530.816</v>
       </c>
       <c r="E16" t="n">
-        <v>8493.05</v>
+        <v>3184.89</v>
       </c>
       <c r="F16" t="n">
         <v>5.0</v>
       </c>
       <c r="G16" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +1951,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" t="n">
         <v>8.4</v>
@@ -1943,12 +1969,12 @@
         <v>5.0</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="n">
         <v>9.85</v>
@@ -1971,36 +1997,36 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" t="n">
-        <v>92.0</v>
+        <v>12.0</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>61.3188</v>
+        <v>62.6161</v>
       </c>
       <c r="E4" t="n">
-        <v>5641.33</v>
+        <v>751.394</v>
       </c>
       <c r="F4" t="n">
         <v>5.0</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" t="n">
         <v>24.0</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
         <v>44.2785</v>
@@ -2012,18 +2038,18 @@
         <v>5.0</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="n">
         <v>42.28</v>
@@ -2035,64 +2061,64 @@
         <v>5.0</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="n">
-        <v>42.0</v>
+        <v>2.0</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" t="n">
-        <v>86.1213</v>
+        <v>88.359</v>
       </c>
       <c r="E7" t="n">
-        <v>3617.09</v>
+        <v>176.718</v>
       </c>
       <c r="F7" t="n">
         <v>5.0</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" t="n">
-        <v>17.0</v>
+        <v>47.0</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" t="n">
-        <v>77.3709</v>
+        <v>78.7299</v>
       </c>
       <c r="E8" t="n">
-        <v>1315.31</v>
+        <v>3700.31</v>
       </c>
       <c r="F8" t="n">
         <v>5.0</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" t="n">
         <v>46.0</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" t="n">
         <v>39.0077</v>
@@ -2104,18 +2130,18 @@
         <v>5.0</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" t="n">
         <v>60.0</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" t="n">
         <v>22.0005</v>
@@ -2127,41 +2153,41 @@
         <v>5.0</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" t="n">
-        <v>38.0</v>
+        <v>28.0</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" t="n">
         <v>63.8846</v>
       </c>
       <c r="E11" t="n">
-        <v>2427.61</v>
+        <v>1788.77</v>
       </c>
       <c r="F11" t="n">
         <v>5.0</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B12" t="n">
         <v>24.0</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" t="n">
         <v>59.6225</v>
@@ -2173,18 +2199,18 @@
         <v>5.0</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" t="n">
         <v>5.0</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" t="n">
         <v>74.5377</v>
@@ -2196,58 +2222,58 @@
         <v>5.0</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" t="n">
-        <v>47.0</v>
+        <v>37.0</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" t="n">
         <v>58.3981</v>
       </c>
       <c r="E14" t="n">
-        <v>2744.71</v>
+        <v>2160.73</v>
       </c>
       <c r="F14" t="n">
         <v>5.0</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15" t="n">
-        <v>86.0</v>
+        <v>46.0</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" t="n">
         <v>162.379</v>
       </c>
       <c r="E15" t="n">
-        <v>13964.6</v>
+        <v>7469.45</v>
       </c>
       <c r="F15" t="n">
         <v>5.0</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" t="n">
         <v>20.6</v>
@@ -2265,12 +2291,12 @@
         <v>5.0</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" t="n">
         <v>45.4</v>
@@ -2288,18 +2314,18 @@
         <v>5.0</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B18" t="n">
         <v>45.0</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" t="n">
         <v>22.9157</v>
@@ -2311,18 +2337,18 @@
         <v>5.0</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B19" t="n">
         <v>20.0</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" t="n">
         <v>42.0</v>
@@ -2334,18 +2360,18 @@
         <v>5.0</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" t="n">
         <v>24.0</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" t="n">
         <v>39.465</v>
@@ -2357,15 +2383,15 @@
         <v>5.0</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -2374,18 +2400,18 @@
         <v>129.328</v>
       </c>
       <c r="E21" t="n">
-        <v>3233.21</v>
+        <v>1939.93</v>
       </c>
       <c r="F21" t="n">
         <v>5.0</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" t="n">
         <v>5.0</v>
@@ -2403,12 +2429,12 @@
         <v>5.0</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2426,58 +2452,58 @@
         <v>5.0</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24" t="n">
-        <v>15.75</v>
+        <v>25.75</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>320.545</v>
+        <v>312.566</v>
       </c>
       <c r="E24" t="n">
-        <v>5048.58</v>
+        <v>8048.58</v>
       </c>
       <c r="F24" t="n">
         <v>5.0</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>346.739</v>
+        <v>538.913</v>
       </c>
       <c r="E25" t="n">
-        <v>1733.69</v>
+        <v>8083.69</v>
       </c>
       <c r="F25" t="n">
         <v>5.0</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" t="n">
         <v>5.0</v>
@@ -2495,87 +2521,87 @@
         <v>5.0</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B27" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" t="n">
-        <v>63.0875</v>
+        <v>64.4318</v>
       </c>
       <c r="E27" t="n">
-        <v>3154.38</v>
+        <v>2577.27</v>
       </c>
       <c r="F27" t="n">
         <v>5.0</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" t="n">
-        <v>59.0</v>
+        <v>54.0</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" t="n">
-        <v>67.6122</v>
+        <v>69.2165</v>
       </c>
       <c r="E28" t="n">
-        <v>3989.12</v>
+        <v>3737.69</v>
       </c>
       <c r="F28" t="n">
         <v>5.0</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B29" t="n">
-        <v>45.0</v>
+        <v>20.0</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" t="n">
-        <v>67.2071</v>
+        <v>68.6184</v>
       </c>
       <c r="E29" t="n">
-        <v>3024.32</v>
+        <v>1372.37</v>
       </c>
       <c r="F29" t="n">
         <v>5.0</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B30" t="n">
         <v>32.0</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" t="n">
         <v>50.5547</v>
@@ -2587,18 +2613,18 @@
         <v>5.0</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" t="n">
         <v>66.668</v>
@@ -2610,18 +2636,18 @@
         <v>5.0</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" t="n">
         <v>36.0</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" t="n">
         <v>23.353</v>
@@ -2633,12 +2659,12 @@
         <v>5.0</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B33" t="n">
         <v>10.001</v>
@@ -2656,12 +2682,12 @@
         <v>5.0</v>
       </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B34" t="n">
         <v>25.0</v>
@@ -2684,13 +2710,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B35" t="n">
         <v>20.0</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" t="n">
         <v>55.5</v>
@@ -2702,7 +2728,7 @@
         <v>5.0</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2743,13 +2769,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" t="n">
         <v>12.0</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" t="n">
         <v>100.484</v>
@@ -2761,81 +2787,81 @@
         <v>5.0</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" t="n">
         <v>389.883</v>
       </c>
       <c r="E3" t="n">
-        <v>7017.89</v>
+        <v>6238.12</v>
       </c>
       <c r="F3" t="n">
         <v>12.0</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" t="n">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" t="n">
-        <v>137.558</v>
+        <v>139.651</v>
       </c>
       <c r="E4" t="n">
-        <v>1375.58</v>
+        <v>5586.05</v>
       </c>
       <c r="F4" t="n">
         <v>5.0</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="n">
-        <v>8.0</v>
+        <v>38.0</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>118.321</v>
+        <v>137.45</v>
       </c>
       <c r="E5" t="n">
-        <v>946.568</v>
+        <v>5223.08</v>
       </c>
       <c r="F5" t="n">
         <v>5.0</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6" t="n">
         <v>15.0</v>
@@ -2853,7 +2879,7 @@
         <v>5.0</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +2920,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" t="n">
         <v>6.0</v>
@@ -2912,12 +2938,12 @@
         <v>5.0</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" t="n">
         <v>5.0</v>
@@ -2940,7 +2966,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" t="n">
         <v>6.5</v>
@@ -2958,15 +2984,15 @@
         <v>0.0</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" t="n">
-        <v>43.6</v>
+        <v>13.6</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2975,24 +3001,24 @@
         <v>343.543</v>
       </c>
       <c r="E5" t="n">
-        <v>14978.5</v>
+        <v>4672.19</v>
       </c>
       <c r="F5" t="n">
         <v>5.0</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="n">
         <v>40.0689</v>
@@ -3004,18 +3030,18 @@
         <v>12.0</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" t="n">
         <v>12.0</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" t="n">
         <v>25.39</v>
@@ -3027,12 +3053,12 @@
         <v>12.0</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3050,18 +3076,18 @@
         <v>0.0</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B9" t="n">
         <v>36.0</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" t="n">
         <v>8.7</v>
@@ -3073,12 +3099,12 @@
         <v>12.0</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="n">
         <v>90.0</v>
@@ -3096,12 +3122,12 @@
         <v>0.0</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3119,18 +3145,18 @@
         <v>5.0</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="n">
         <v>38.0</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" t="n">
         <v>11.9119</v>
@@ -3142,12 +3168,12 @@
         <v>5.0</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" t="n">
         <v>2.4</v>
@@ -3165,7 +3191,7 @@
         <v>18.0</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3206,7 +3232,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" t="n">
         <v>50.7</v>
@@ -3224,15 +3250,15 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" t="n">
-        <v>441.75</v>
+        <v>126.75</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3241,18 +3267,18 @@
         <v>67.7067</v>
       </c>
       <c r="E3" t="n">
-        <v>29909.4</v>
+        <v>8581.82</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" t="n">
         <v>123.0</v>
@@ -3270,12 +3296,12 @@
         <v>5.0</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" t="n">
         <v>6.72</v>
@@ -3293,12 +3319,12 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="n">
         <v>5.0</v>
@@ -3316,12 +3342,12 @@
         <v>5.0</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" t="n">
         <v>80.0</v>
@@ -3339,12 +3365,12 @@
         <v>0.0</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" t="n">
         <v>70.0</v>
@@ -3362,15 +3388,15 @@
         <v>5.0</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B9" t="n">
-        <v>94.0</v>
+        <v>68.0</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -3379,21 +3405,21 @@
         <v>54.872</v>
       </c>
       <c r="E9" t="n">
-        <v>5157.97</v>
+        <v>3731.3</v>
       </c>
       <c r="F9" t="n">
         <v>5.0</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B10" t="n">
-        <v>148.0</v>
+        <v>108.0</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -3402,18 +3428,18 @@
         <v>150.224</v>
       </c>
       <c r="E10" t="n">
-        <v>22233.1</v>
+        <v>16224.1</v>
       </c>
       <c r="F10" t="n">
         <v>5.0</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B11" t="n">
         <v>30.0</v>
@@ -3431,15 +3457,15 @@
         <v>0.0</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="n">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -3448,21 +3474,21 @@
         <v>110.0</v>
       </c>
       <c r="E12" t="n">
-        <v>7700.0</v>
+        <v>5500.0</v>
       </c>
       <c r="F12" t="n">
         <v>5.0</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="n">
-        <v>114.0</v>
+        <v>74.0</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -3471,18 +3497,18 @@
         <v>79.9596</v>
       </c>
       <c r="E13" t="n">
-        <v>9115.4</v>
+        <v>5917.01</v>
       </c>
       <c r="F13" t="n">
         <v>5.0</v>
       </c>
       <c r="G13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="n">
         <v>13.0</v>
@@ -3500,12 +3526,12 @@
         <v>5.0</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -3523,12 +3549,12 @@
         <v>5.0</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -3546,12 +3572,12 @@
         <v>5.0</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" t="n">
         <v>14.0</v>
@@ -3569,7 +3595,7 @@
         <v>5.0</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3610,13 +3636,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" t="n">
         <v>125.0</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
         <v>35.0</v>
@@ -3628,18 +3654,18 @@
         <v>18.0</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" t="n">
         <v>26.0</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
         <v>110.0</v>
@@ -3651,18 +3677,18 @@
         <v>12.0</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B4" t="n">
         <v>56.0</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
         <v>62.4163</v>
@@ -3674,18 +3700,18 @@
         <v>18.0</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B5" t="n">
         <v>14.0</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
         <v>47.274</v>
@@ -3697,7 +3723,7 @@
         <v>18.0</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/SHIVAM_PROVISION_STORE_stoc.xlsx
+++ b/SHIVAM_PROVISION_STORE_stoc.xlsx
@@ -683,7 +683,7 @@
         <v>172</v>
       </c>
       <c r="B2" t="n">
-        <v>72.0</v>
+        <v>42.0</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -692,7 +692,7 @@
         <v>36.9</v>
       </c>
       <c r="E2" t="n">
-        <v>2656.8</v>
+        <v>1549.8</v>
       </c>
       <c r="F2" t="n">
         <v>5.0</v>
@@ -706,16 +706,16 @@
         <v>174</v>
       </c>
       <c r="B3" t="n">
-        <v>245.2</v>
+        <v>225.2</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>37.2801</v>
+        <v>40.3224</v>
       </c>
       <c r="E3" t="n">
-        <v>9141.08</v>
+        <v>9080.6</v>
       </c>
       <c r="F3" t="n">
         <v>5.0</v>
@@ -765,16 +765,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-550.0</v>
+        <v>226.0</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>30.4485</v>
+        <v>34.2905</v>
       </c>
       <c r="E2" t="n">
-        <v>-16746.7</v>
+        <v>7749.65</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -834,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>80.5</v>
+        <v>60.5</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -843,7 +843,7 @@
         <v>86.5631</v>
       </c>
       <c r="E5" t="n">
-        <v>6968.33</v>
+        <v>5237.07</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -857,16 +857,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>45.0</v>
+        <v>135.0</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>33.274</v>
+        <v>34.1195</v>
       </c>
       <c r="E6" t="n">
-        <v>1497.33</v>
+        <v>4606.14</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -880,16 +880,16 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>-401.5</v>
+        <v>113.5</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>34.472</v>
+        <v>35.773</v>
       </c>
       <c r="E7" t="n">
-        <v>-13840.5</v>
+        <v>4060.23</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -1008,16 +1008,16 @@
         <v>24</v>
       </c>
       <c r="B3" t="n">
-        <v>42.0</v>
+        <v>122.0</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>82.5012</v>
+        <v>88.0559</v>
       </c>
       <c r="E3" t="n">
-        <v>3465.05</v>
+        <v>10742.8</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1054,16 +1054,16 @@
         <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>63.5</v>
+        <v>83.5</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>110.568</v>
+        <v>103.786</v>
       </c>
       <c r="E5" t="n">
-        <v>7021.08</v>
+        <v>8666.17</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1100,16 +1100,16 @@
         <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>45.0</v>
+        <v>85.0</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>94.5333</v>
+        <v>94.8627</v>
       </c>
       <c r="E7" t="n">
-        <v>4254.0</v>
+        <v>8063.33</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -1123,16 +1123,16 @@
         <v>29</v>
       </c>
       <c r="B8" t="n">
-        <v>52.0</v>
+        <v>102.0</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>105.864</v>
+        <v>113.205</v>
       </c>
       <c r="E8" t="n">
-        <v>5504.9</v>
+        <v>11546.9</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -1261,7 +1261,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="n">
-        <v>68.0</v>
+        <v>38.0</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1270,7 +1270,7 @@
         <v>105.976</v>
       </c>
       <c r="E14" t="n">
-        <v>7206.38</v>
+        <v>4027.1</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -1399,7 +1399,7 @@
         <v>44</v>
       </c>
       <c r="B20" t="n">
-        <v>102.5</v>
+        <v>52.5</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1408,7 +1408,7 @@
         <v>80.0884</v>
       </c>
       <c r="E20" t="n">
-        <v>8209.06</v>
+        <v>4204.64</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -1445,16 +1445,16 @@
         <v>46</v>
       </c>
       <c r="B22" t="n">
-        <v>63.7</v>
+        <v>173.7</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>122.251</v>
+        <v>120.781</v>
       </c>
       <c r="E22" t="n">
-        <v>7787.4</v>
+        <v>20979.6</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -1596,7 +1596,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1605,7 +1605,7 @@
         <v>587.546</v>
       </c>
       <c r="E4" t="n">
-        <v>9400.74</v>
+        <v>8225.65</v>
       </c>
       <c r="F4" t="n">
         <v>12.0</v>
@@ -1688,7 +1688,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>20.75</v>
+        <v>5.75</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1697,7 +1697,7 @@
         <v>785.734</v>
       </c>
       <c r="E8" t="n">
-        <v>16304.0</v>
+        <v>4517.97</v>
       </c>
       <c r="F8" t="n">
         <v>5.0</v>
@@ -1711,7 +1711,7 @@
         <v>61</v>
       </c>
       <c r="B9" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1720,7 +1720,7 @@
         <v>195.105</v>
       </c>
       <c r="E9" t="n">
-        <v>2536.36</v>
+        <v>585.315</v>
       </c>
       <c r="F9" t="n">
         <v>5.0</v>
@@ -1803,7 +1803,7 @@
         <v>68</v>
       </c>
       <c r="B13" t="n">
-        <v>14.2125</v>
+        <v>10.2125</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1812,7 +1812,7 @@
         <v>541.06</v>
       </c>
       <c r="E13" t="n">
-        <v>7689.82</v>
+        <v>5525.58</v>
       </c>
       <c r="F13" t="n">
         <v>5.0</v>
@@ -1849,7 +1849,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1858,7 +1858,7 @@
         <v>674.545</v>
       </c>
       <c r="E15" t="n">
-        <v>4721.82</v>
+        <v>2023.64</v>
       </c>
       <c r="F15" t="n">
         <v>5.0</v>
@@ -2000,16 +2000,16 @@
         <v>77</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0</v>
+        <v>42.0</v>
       </c>
       <c r="C4" t="s">
         <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>62.6161</v>
+        <v>62.2477</v>
       </c>
       <c r="E4" t="n">
-        <v>751.394</v>
+        <v>2614.4</v>
       </c>
       <c r="F4" t="n">
         <v>5.0</v>
@@ -2069,16 +2069,16 @@
         <v>81</v>
       </c>
       <c r="B7" t="n">
-        <v>2.0</v>
+        <v>112.0</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
       </c>
       <c r="D7" t="n">
-        <v>88.359</v>
+        <v>88.0258</v>
       </c>
       <c r="E7" t="n">
-        <v>176.718</v>
+        <v>9858.89</v>
       </c>
       <c r="F7" t="n">
         <v>5.0</v>
@@ -2092,16 +2092,16 @@
         <v>83</v>
       </c>
       <c r="B8" t="n">
-        <v>47.0</v>
+        <v>17.0</v>
       </c>
       <c r="C8" t="s">
         <v>78</v>
       </c>
       <c r="D8" t="n">
-        <v>78.7299</v>
+        <v>77.5557</v>
       </c>
       <c r="E8" t="n">
-        <v>3700.31</v>
+        <v>1318.45</v>
       </c>
       <c r="F8" t="n">
         <v>5.0</v>
@@ -2115,7 +2115,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="n">
-        <v>46.0</v>
+        <v>6.0</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
@@ -2124,7 +2124,7 @@
         <v>39.0077</v>
       </c>
       <c r="E9" t="n">
-        <v>1794.35</v>
+        <v>234.046</v>
       </c>
       <c r="F9" t="n">
         <v>5.0</v>
@@ -2138,16 +2138,16 @@
         <v>85</v>
       </c>
       <c r="B10" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="C10" t="s">
         <v>78</v>
       </c>
       <c r="D10" t="n">
-        <v>22.0005</v>
+        <v>22.1636</v>
       </c>
       <c r="E10" t="n">
-        <v>1320.03</v>
+        <v>664.907</v>
       </c>
       <c r="F10" t="n">
         <v>5.0</v>
@@ -2161,16 +2161,16 @@
         <v>86</v>
       </c>
       <c r="B11" t="n">
-        <v>28.0</v>
+        <v>148.0</v>
       </c>
       <c r="C11" t="s">
         <v>78</v>
       </c>
       <c r="D11" t="n">
-        <v>63.8846</v>
+        <v>66.4917</v>
       </c>
       <c r="E11" t="n">
-        <v>1788.77</v>
+        <v>9840.77</v>
       </c>
       <c r="F11" t="n">
         <v>5.0</v>
@@ -2207,16 +2207,16 @@
         <v>88</v>
       </c>
       <c r="B13" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C13" t="s">
         <v>78</v>
       </c>
       <c r="D13" t="n">
-        <v>74.5377</v>
+        <v>73.2264</v>
       </c>
       <c r="E13" t="n">
-        <v>372.689</v>
+        <v>439.359</v>
       </c>
       <c r="F13" t="n">
         <v>5.0</v>
@@ -2230,16 +2230,16 @@
         <v>89</v>
       </c>
       <c r="B14" t="n">
-        <v>37.0</v>
+        <v>68.0</v>
       </c>
       <c r="C14" t="s">
         <v>78</v>
       </c>
       <c r="D14" t="n">
-        <v>58.3981</v>
+        <v>58.7323</v>
       </c>
       <c r="E14" t="n">
-        <v>2160.73</v>
+        <v>3993.8</v>
       </c>
       <c r="F14" t="n">
         <v>5.0</v>
@@ -2322,7 +2322,7 @@
         <v>94</v>
       </c>
       <c r="B18" t="n">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
       <c r="C18" t="s">
         <v>78</v>
@@ -2331,7 +2331,7 @@
         <v>22.9157</v>
       </c>
       <c r="E18" t="n">
-        <v>1031.21</v>
+        <v>572.896</v>
       </c>
       <c r="F18" t="n">
         <v>5.0</v>
@@ -2368,7 +2368,7 @@
         <v>97</v>
       </c>
       <c r="B20" t="n">
-        <v>24.0</v>
+        <v>14.0</v>
       </c>
       <c r="C20" t="s">
         <v>78</v>
@@ -2377,7 +2377,7 @@
         <v>39.465</v>
       </c>
       <c r="E20" t="n">
-        <v>947.159</v>
+        <v>552.509</v>
       </c>
       <c r="F20" t="n">
         <v>5.0</v>
@@ -2460,16 +2460,16 @@
         <v>102</v>
       </c>
       <c r="B24" t="n">
-        <v>25.75</v>
+        <v>20.75</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>312.566</v>
+        <v>313.984</v>
       </c>
       <c r="E24" t="n">
-        <v>8048.58</v>
+        <v>6515.17</v>
       </c>
       <c r="F24" t="n">
         <v>5.0</v>
@@ -2483,16 +2483,16 @@
         <v>103</v>
       </c>
       <c r="B25" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>538.913</v>
+        <v>604.456</v>
       </c>
       <c r="E25" t="n">
-        <v>8083.69</v>
+        <v>12089.1</v>
       </c>
       <c r="F25" t="n">
         <v>5.0</v>
@@ -2506,16 +2506,16 @@
         <v>104</v>
       </c>
       <c r="B26" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>602.474</v>
+        <v>728.737</v>
       </c>
       <c r="E26" t="n">
-        <v>3012.37</v>
+        <v>7287.37</v>
       </c>
       <c r="F26" t="n">
         <v>5.0</v>
@@ -2529,16 +2529,16 @@
         <v>106</v>
       </c>
       <c r="B27" t="n">
-        <v>40.0</v>
+        <v>111.0</v>
       </c>
       <c r="C27" t="s">
         <v>78</v>
       </c>
       <c r="D27" t="n">
-        <v>64.4318</v>
+        <v>65.5964</v>
       </c>
       <c r="E27" t="n">
-        <v>2577.27</v>
+        <v>7281.21</v>
       </c>
       <c r="F27" t="n">
         <v>5.0</v>
@@ -2552,16 +2552,16 @@
         <v>107</v>
       </c>
       <c r="B28" t="n">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
       <c r="C28" t="s">
         <v>78</v>
       </c>
       <c r="D28" t="n">
-        <v>69.2165</v>
+        <v>68.808</v>
       </c>
       <c r="E28" t="n">
-        <v>3737.69</v>
+        <v>1720.2</v>
       </c>
       <c r="F28" t="n">
         <v>5.0</v>
@@ -2575,16 +2575,16 @@
         <v>108</v>
       </c>
       <c r="B29" t="n">
-        <v>20.0</v>
+        <v>110.0</v>
       </c>
       <c r="C29" t="s">
         <v>78</v>
       </c>
       <c r="D29" t="n">
-        <v>68.6184</v>
+        <v>70.1334</v>
       </c>
       <c r="E29" t="n">
-        <v>1372.37</v>
+        <v>7714.67</v>
       </c>
       <c r="F29" t="n">
         <v>5.0</v>
@@ -2598,16 +2598,16 @@
         <v>109</v>
       </c>
       <c r="B30" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="C30" t="s">
         <v>78</v>
       </c>
       <c r="D30" t="n">
-        <v>50.5547</v>
+        <v>50.8529</v>
       </c>
       <c r="E30" t="n">
-        <v>1617.75</v>
+        <v>610.235</v>
       </c>
       <c r="F30" t="n">
         <v>5.0</v>
@@ -2621,16 +2621,16 @@
         <v>110</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0</v>
+        <v>62.0</v>
       </c>
       <c r="C31" t="s">
         <v>78</v>
       </c>
       <c r="D31" t="n">
-        <v>66.668</v>
+        <v>75.699</v>
       </c>
       <c r="E31" t="n">
-        <v>66.668</v>
+        <v>4693.34</v>
       </c>
       <c r="F31" t="n">
         <v>5.0</v>
@@ -2644,7 +2644,7 @@
         <v>111</v>
       </c>
       <c r="B32" t="n">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
       <c r="C32" t="s">
         <v>78</v>
@@ -2653,7 +2653,7 @@
         <v>23.353</v>
       </c>
       <c r="E32" t="n">
-        <v>840.708</v>
+        <v>607.178</v>
       </c>
       <c r="F32" t="n">
         <v>5.0</v>
@@ -2713,16 +2713,16 @@
         <v>114</v>
       </c>
       <c r="B35" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C35" t="s">
         <v>78</v>
       </c>
       <c r="D35" t="n">
-        <v>55.5</v>
+        <v>61.794</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.0</v>
+        <v>3089.7</v>
       </c>
       <c r="F35" t="n">
         <v>5.0</v>
@@ -2778,10 +2778,10 @@
         <v>116</v>
       </c>
       <c r="D2" t="n">
-        <v>100.484</v>
+        <v>130.257</v>
       </c>
       <c r="E2" t="n">
-        <v>1205.7</v>
+        <v>1563.08</v>
       </c>
       <c r="F2" t="n">
         <v>5.0</v>
@@ -2992,16 +2992,16 @@
         <v>131</v>
       </c>
       <c r="B5" t="n">
-        <v>13.6</v>
+        <v>15.6</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>343.543</v>
+        <v>358.107</v>
       </c>
       <c r="E5" t="n">
-        <v>4672.19</v>
+        <v>5586.47</v>
       </c>
       <c r="F5" t="n">
         <v>5.0</v>
@@ -3107,16 +3107,16 @@
         <v>141</v>
       </c>
       <c r="B10" t="n">
-        <v>90.0</v>
+        <v>158.0</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>23.5055</v>
+        <v>24.8184</v>
       </c>
       <c r="E10" t="n">
-        <v>2115.5</v>
+        <v>3921.31</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -3153,16 +3153,16 @@
         <v>145</v>
       </c>
       <c r="B12" t="n">
-        <v>38.0</v>
+        <v>70.0</v>
       </c>
       <c r="C12" t="s">
         <v>78</v>
       </c>
       <c r="D12" t="n">
-        <v>11.9119</v>
+        <v>8.89451</v>
       </c>
       <c r="E12" t="n">
-        <v>452.652</v>
+        <v>622.616</v>
       </c>
       <c r="F12" t="n">
         <v>5.0</v>
@@ -3350,16 +3350,16 @@
         <v>154</v>
       </c>
       <c r="B7" t="n">
-        <v>80.0</v>
+        <v>349.0</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0</v>
+        <v>41.5254</v>
       </c>
       <c r="E7" t="n">
-        <v>3200.0</v>
+        <v>14492.4</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>

--- a/SHIVAM_PROVISION_STORE_stoc.xlsx
+++ b/SHIVAM_PROVISION_STORE_stoc.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="176">
   <si>
     <t>NAME</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>kasoori methi 50gm</t>
+  </si>
+  <si>
+    <t>0712</t>
   </si>
   <si>
     <t>kasoori methi 25gm</t>
@@ -680,7 +683,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B2" t="n">
         <v>42.0</v>
@@ -698,12 +701,12 @@
         <v>5.0</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B3" t="n">
         <v>225.2</v>
@@ -721,7 +724,7 @@
         <v>5.0</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2130,12 +2133,12 @@
         <v>5.0</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" t="n">
         <v>30.0</v>
@@ -2147,18 +2150,18 @@
         <v>22.1636</v>
       </c>
       <c r="E10" t="n">
-        <v>664.907</v>
+        <v>664.908</v>
       </c>
       <c r="F10" t="n">
         <v>5.0</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B11" t="n">
         <v>148.0</v>
@@ -2181,7 +2184,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" t="n">
         <v>24.0</v>
@@ -2204,7 +2207,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B13" t="n">
         <v>6.0</v>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" t="n">
         <v>68.0</v>
@@ -2250,7 +2253,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" t="n">
         <v>46.0</v>
@@ -2273,7 +2276,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" t="n">
         <v>20.6</v>
@@ -2291,12 +2294,12 @@
         <v>5.0</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17" t="n">
         <v>45.4</v>
@@ -2319,7 +2322,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" t="n">
         <v>25.0</v>
@@ -2342,7 +2345,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B19" t="n">
         <v>20.0</v>
@@ -2360,12 +2363,12 @@
         <v>5.0</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" t="n">
         <v>14.0</v>
@@ -2388,7 +2391,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" t="n">
         <v>15.0</v>
@@ -2411,7 +2414,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" t="n">
         <v>5.0</v>
@@ -2429,12 +2432,12 @@
         <v>5.0</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -2457,7 +2460,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B24" t="n">
         <v>20.75</v>
@@ -2475,12 +2478,12 @@
         <v>5.0</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B25" t="n">
         <v>20.0</v>
@@ -2503,7 +2506,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B26" t="n">
         <v>10.0</v>
@@ -2521,12 +2524,12 @@
         <v>5.0</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" t="n">
         <v>111.0</v>
@@ -2549,7 +2552,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28" t="n">
         <v>25.0</v>
@@ -2572,7 +2575,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B29" t="n">
         <v>110.0</v>
@@ -2595,7 +2598,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B30" t="n">
         <v>12.0</v>
@@ -2618,7 +2621,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31" t="n">
         <v>62.0</v>
@@ -2641,7 +2644,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" t="n">
         <v>26.0</v>
@@ -2659,12 +2662,12 @@
         <v>5.0</v>
       </c>
       <c r="G32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B33" t="n">
         <v>10.001</v>
@@ -2682,12 +2685,12 @@
         <v>5.0</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B34" t="n">
         <v>25.0</v>
@@ -2710,7 +2713,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B35" t="n">
         <v>50.0</v>
@@ -2769,13 +2772,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" t="n">
         <v>12.0</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" t="n">
         <v>130.257</v>
@@ -2787,18 +2790,18 @@
         <v>5.0</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" t="n">
         <v>16.0</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" t="n">
         <v>389.883</v>
@@ -2810,18 +2813,18 @@
         <v>12.0</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" t="n">
         <v>40.0</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" t="n">
         <v>139.651</v>
@@ -2833,12 +2836,12 @@
         <v>5.0</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" t="n">
         <v>38.0</v>
@@ -2856,12 +2859,12 @@
         <v>5.0</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
         <v>15.0</v>
@@ -2879,7 +2882,7 @@
         <v>5.0</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" t="n">
         <v>6.0</v>
@@ -2938,12 +2941,12 @@
         <v>5.0</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" t="n">
         <v>5.0</v>
@@ -2966,7 +2969,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="n">
         <v>6.5</v>
@@ -2984,12 +2987,12 @@
         <v>0.0</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" t="n">
         <v>15.6</v>
@@ -3007,12 +3010,12 @@
         <v>5.0</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3030,12 +3033,12 @@
         <v>12.0</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" t="n">
         <v>12.0</v>
@@ -3053,12 +3056,12 @@
         <v>12.0</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3076,12 +3079,12 @@
         <v>0.0</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" t="n">
         <v>36.0</v>
@@ -3099,12 +3102,12 @@
         <v>12.0</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="n">
         <v>158.0</v>
@@ -3122,12 +3125,12 @@
         <v>0.0</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3145,12 +3148,12 @@
         <v>5.0</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="n">
         <v>70.0</v>
@@ -3168,12 +3171,12 @@
         <v>5.0</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B13" t="n">
         <v>2.4</v>
@@ -3191,7 +3194,7 @@
         <v>18.0</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3232,7 +3235,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" t="n">
         <v>50.7</v>
@@ -3250,12 +3253,12 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" t="n">
         <v>126.75</v>
@@ -3273,12 +3276,12 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B4" t="n">
         <v>123.0</v>
@@ -3296,12 +3299,12 @@
         <v>5.0</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B5" t="n">
         <v>6.72</v>
@@ -3319,12 +3322,12 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B6" t="n">
         <v>5.0</v>
@@ -3342,12 +3345,12 @@
         <v>5.0</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B7" t="n">
         <v>349.0</v>
@@ -3365,12 +3368,12 @@
         <v>0.0</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" t="n">
         <v>70.0</v>
@@ -3388,12 +3391,12 @@
         <v>5.0</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" t="n">
         <v>68.0</v>
@@ -3411,12 +3414,12 @@
         <v>5.0</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" t="n">
         <v>108.0</v>
@@ -3434,12 +3437,12 @@
         <v>5.0</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11" t="n">
         <v>30.0</v>
@@ -3457,12 +3460,12 @@
         <v>0.0</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" t="n">
         <v>50.0</v>
@@ -3480,12 +3483,12 @@
         <v>5.0</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="n">
         <v>74.0</v>
@@ -3503,12 +3506,12 @@
         <v>5.0</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="n">
         <v>13.0</v>
@@ -3526,12 +3529,12 @@
         <v>5.0</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -3549,12 +3552,12 @@
         <v>5.0</v>
       </c>
       <c r="G15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -3572,12 +3575,12 @@
         <v>5.0</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B17" t="n">
         <v>14.0</v>
@@ -3595,7 +3598,7 @@
         <v>5.0</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3636,7 +3639,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" t="n">
         <v>125.0</v>
@@ -3654,12 +3657,12 @@
         <v>18.0</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B3" t="n">
         <v>26.0</v>
@@ -3677,12 +3680,12 @@
         <v>12.0</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B4" t="n">
         <v>56.0</v>
@@ -3700,12 +3703,12 @@
         <v>18.0</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5" t="n">
         <v>14.0</v>
@@ -3723,7 +3726,7 @@
         <v>18.0</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
